--- a/Test Case Payment Journey.xlsx
+++ b/Test Case Payment Journey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/queenels/PycharmProjects/Test_Indosat/Payment_Journey/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/queenels/PycharmProjects/Test_Indosat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0223A9DA-1DED-A945-B44D-BC272F915EAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6AE0AA-4C19-514F-86B2-F21189843EE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="2" r:id="rId1"/>
@@ -108,12 +108,6 @@
     <t>Confirm the user-selected product detail page opens as the user clicks on the image or name of the product</t>
   </si>
   <si>
-    <t>Verify if the user has input invalid promo coupon</t>
-  </si>
-  <si>
-    <t>Verify if the user has input an email without a valid email extension behind it</t>
-  </si>
-  <si>
     <t>TC11</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
   </si>
   <si>
     <t>Verify if the user can input an valid email address</t>
-  </si>
-  <si>
-    <t>Verify if the user has input an email without an email name and just the extension behind it</t>
   </si>
   <si>
     <t>Visit the valid URL (https://www.happydayshopping.com/)</t>
@@ -365,6 +356,15 @@
 5. Address (221b Baker Street)
 6. City (London)
 7. Note (please pack it well)</t>
+  </si>
+  <si>
+    <t>Verify if the user can input the extension of the email without an email name</t>
+  </si>
+  <si>
+    <t>Verify if the user can input an email without a valid email extension behind it</t>
+  </si>
+  <si>
+    <t>Verify if the user can input invalid promo coupon</t>
   </si>
 </sst>
 </file>
@@ -873,7 +873,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -885,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5D45FF-214C-8B40-B871-8345E1059C90}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -940,7 +940,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="L1" sqref="A1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1006,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1014,25 +1014,25 @@
         <v>14</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="H2" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>12</v>
@@ -1044,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -1061,16 +1061,16 @@
         <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="H3" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>12</v>
@@ -1082,7 +1082,7 @@
         <v>11</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -1099,16 +1099,16 @@
         <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>12</v>
@@ -1120,7 +1120,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -1128,7 +1128,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -1137,16 +1137,16 @@
         <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>12</v>
@@ -1158,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -1166,7 +1166,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>11</v>
@@ -1175,16 +1175,16 @@
         <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>12</v>
@@ -1196,7 +1196,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -1204,7 +1204,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>11</v>
@@ -1213,16 +1213,16 @@
         <v>11</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>12</v>
@@ -1234,7 +1234,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="112" x14ac:dyDescent="0.2">
@@ -1242,7 +1242,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>11</v>
@@ -1251,16 +1251,16 @@
         <v>11</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>12</v>
@@ -1272,7 +1272,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="112" x14ac:dyDescent="0.2">
@@ -1280,7 +1280,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>11</v>
@@ -1289,16 +1289,16 @@
         <v>11</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>12</v>
@@ -1310,7 +1310,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="144" x14ac:dyDescent="0.2">
@@ -1318,7 +1318,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>11</v>
@@ -1327,16 +1327,16 @@
         <v>11</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>24</v>
@@ -1348,7 +1348,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -1356,7 +1356,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>11</v>
@@ -1365,36 +1365,36 @@
         <v>11</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>11</v>
@@ -1403,36 +1403,36 @@
         <v>11</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>11</v>
@@ -1441,16 +1441,16 @@
         <v>11</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>12</v>
@@ -1462,15 +1462,15 @@
         <v>11</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="256" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>11</v>
@@ -1479,16 +1479,16 @@
         <v>11</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>12</v>
@@ -1500,15 +1500,15 @@
         <v>11</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="320" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>11</v>
@@ -1517,16 +1517,16 @@
         <v>11</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="G15" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>12</v>
@@ -1538,7 +1538,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Test Case Payment Journey.xlsx
+++ b/Test Case Payment Journey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/queenels/PycharmProjects/Test_Indosat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6AE0AA-4C19-514F-86B2-F21189843EE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7914E6C1-4034-2D4B-BA6E-C427B211E702}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Test Case Payment Journey.xlsx
+++ b/Test Case Payment Journey.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/queenels/PycharmProjects/Test_Indosat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7914E6C1-4034-2D4B-BA6E-C427B211E702}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD75169-A006-A845-AA6C-B2B5828A65FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Register" sheetId="2" r:id="rId1"/>
-    <sheet name="Login" sheetId="3" r:id="rId2"/>
-    <sheet name="Journey to Payment" sheetId="1" r:id="rId3"/>
+    <sheet name="Join and Login" sheetId="3" r:id="rId1"/>
+    <sheet name="Journey to Payment" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -366,12 +365,78 @@
   <si>
     <t>Verify if the user can input invalid promo coupon</t>
   </si>
+  <si>
+    <t>Verify that the user will be able to see and type to the input field of email</t>
+  </si>
+  <si>
+    <t>Verify that the user will be able to input their email to login page and click login button</t>
+  </si>
+  <si>
+    <t>Verify that the user will be able to input their email to login page and pressing Enter key</t>
+  </si>
+  <si>
+    <t>Verify the success of sending login link to email should be displayed</t>
+  </si>
+  <si>
+    <t>Verify the error message should display after leaving the email field blank</t>
+  </si>
+  <si>
+    <t>Elsa Sarah NM</t>
+  </si>
+  <si>
+    <t>3/25/2024 12:34 PM</t>
+  </si>
+  <si>
+    <t>1. URL (https://www.happydayshopping.com/products/account)
+2. Valid email (elsa.sarah25@yahoo.com)</t>
+  </si>
+  <si>
+    <t>1. Open browser
+2. Click field email and input it</t>
+  </si>
+  <si>
+    <t>The user will be able to see field email and type to it</t>
+  </si>
+  <si>
+    <t>The user should be able to click login button</t>
+  </si>
+  <si>
+    <t>The user should be able to hit login button with enter</t>
+  </si>
+  <si>
+    <t>The message of successfully sending a login link by email should be displayed</t>
+  </si>
+  <si>
+    <t>1. Open browser
+2. Click field email and input it
+3. Click "Get Sign-In Link" button</t>
+  </si>
+  <si>
+    <t>1. Open browser
+2. Click field email and input it
+3. Press "Get Sign-In Link" button with enter on keyboard</t>
+  </si>
+  <si>
+    <t>The error message "Please enter a valid email" should be displayed</t>
+  </si>
+  <si>
+    <t>1. URL (https://www.happydayshopping.com/products/account)
+2. Just the name of the email (elsa.sarah25)</t>
+  </si>
+  <si>
+    <t>1. URL (https://www.happydayshopping.com/products/account)
+2. Just the extention of the email (@yahoo.com)</t>
+  </si>
+  <si>
+    <t>1. Open browser
+2. Click "Get Sign-In Link" button</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -408,6 +473,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -459,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -498,9 +570,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -514,6 +583,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -819,45 +900,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6062F69-E63E-564F-9C9F-7359CD3E52E7}">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5D45FF-214C-8B40-B871-8345E1059C90}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63" style="15" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.83203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="37.5" style="15" customWidth="1"/>
+    <col min="8" max="8" width="43" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" ht="21">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="12" t="s">
@@ -869,11 +955,277 @@
       <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="12" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="32">
+      <c r="A2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="48">
+      <c r="A3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="64">
+      <c r="A4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="48">
+      <c r="A5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="32">
+      <c r="A6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="48">
+      <c r="A7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="48">
+      <c r="A8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -882,96 +1234,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5D45FF-214C-8B40-B871-8345E1059C90}">
-  <dimension ref="A1:L1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="63" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.83203125" customWidth="1"/>
-    <col min="3" max="4" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.33203125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="43.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="72.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -987,7 +1272,7 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1009,7 +1294,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="16">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1034,20 +1319,20 @@
       <c r="H2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="22" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="L2" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="48">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1072,20 +1357,20 @@
       <c r="H3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="L3" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="64">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1110,20 +1395,20 @@
       <c r="H4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="22" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="L4" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="64">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1148,20 +1433,20 @@
       <c r="H5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="22" t="s">
         <v>13</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+      <c r="L5" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="96">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1186,20 +1471,20 @@
       <c r="H6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="22" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+      <c r="L6" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="96">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1224,20 +1509,20 @@
       <c r="H7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="22" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="112" x14ac:dyDescent="0.2">
+      <c r="L7" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="112">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1262,20 +1547,20 @@
       <c r="H8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="22" t="s">
         <v>13</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="112" x14ac:dyDescent="0.2">
+      <c r="L8" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="112">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1300,20 +1585,20 @@
       <c r="H9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="22" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="144" x14ac:dyDescent="0.2">
+      <c r="L9" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="144">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
@@ -1338,20 +1623,20 @@
       <c r="H10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="22" t="s">
         <v>25</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+      <c r="L10" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="128">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -1376,20 +1661,20 @@
       <c r="H11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="22" t="s">
         <v>59</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+      <c r="L11" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="128">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -1414,20 +1699,20 @@
       <c r="H12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="22" t="s">
         <v>59</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+      <c r="L12" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="128">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -1452,20 +1737,20 @@
       <c r="H13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="22" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="256" x14ac:dyDescent="0.2">
+      <c r="L13" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="256">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -1490,20 +1775,20 @@
       <c r="H14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="22" t="s">
         <v>13</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="320" x14ac:dyDescent="0.2">
+      <c r="L14" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="320">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -1528,16 +1813,16 @@
       <c r="H15" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="22" t="s">
         <v>13</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="21" t="s">
         <v>76</v>
       </c>
     </row>
